--- a/ListasDatos/Polanco Domínguez Rosa María_2021.xlsx
+++ b/ListasDatos/Polanco Domínguez Rosa María_2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1126">
   <si>
     <t>NC</t>
   </si>
@@ -284,7 +284,7 @@
     <t>josueyaminrs@gmail.com</t>
   </si>
   <si>
-    <t>arturombappe10@gamil.com</t>
+    <t>arturombappe10@gmail.com</t>
   </si>
   <si>
     <t>sanjuanneftali@gmail.com</t>
@@ -446,6 +446,9 @@
     <t>MARTIN SAN JUAN CORTES</t>
   </si>
   <si>
+    <t>AGUSTÍN SOLANO MARTÍNEZ</t>
+  </si>
+  <si>
     <t>JESUS VÁZQUEZ SANTIAGO</t>
   </si>
   <si>
@@ -455,9 +458,6 @@
     <t>lilianagarciaconche@gmail.com</t>
   </si>
   <si>
-    <t>Marielc</t>
-  </si>
-  <si>
     <t>rethorespinosa@gmail.com</t>
   </si>
   <si>
@@ -869,6 +869,9 @@
     <t>ceciliasuarez128@gmail.com</t>
   </si>
   <si>
+    <t>laishastefanytzanahuaguevara@gmail.com</t>
+  </si>
+  <si>
     <t>yadiratexcahua@gmail.com</t>
   </si>
   <si>
@@ -968,6 +971,9 @@
     <t>2722362905</t>
   </si>
   <si>
+    <t>2722456950</t>
+  </si>
+  <si>
     <t>2722257040</t>
   </si>
   <si>
@@ -1052,6 +1058,9 @@
     <t>MARIA CRISTINA MARROQUIN CORONA</t>
   </si>
   <si>
+    <t>SANDRA DOMINGUEZ RIOS</t>
+  </si>
+  <si>
     <t>CRUZ FLORES JIMENEZ</t>
   </si>
   <si>
@@ -1076,6 +1085,9 @@
     <t>JAVIER MANUEL MANZANET HERNÁNDEZ</t>
   </si>
   <si>
+    <t>BEATRIZ MARTÍNEZ BERNAL</t>
+  </si>
+  <si>
     <t>ROGELIO MARQUEZ HERNANDEZ</t>
   </si>
   <si>
@@ -1109,6 +1121,9 @@
     <t>JOSÉ ANTONIO SUÁREZ LÓPEZ</t>
   </si>
   <si>
+    <t>ELIZABETH GUEVARA MOTA</t>
+  </si>
+  <si>
     <t>MARÍA VICTORIA GUADALUPE CABRERA BÁEZ</t>
   </si>
   <si>
@@ -1139,6 +1154,9 @@
     <t>cristinacorona144@gmail.com</t>
   </si>
   <si>
+    <t>alexxadomm03@gmail.com</t>
+  </si>
+  <si>
     <t>agl.1904.07@gmail.com</t>
   </si>
   <si>
@@ -1157,6 +1175,9 @@
     <t>huevin749@gmail.com</t>
   </si>
   <si>
+    <t>bottia082@gmail.com</t>
+  </si>
+  <si>
     <t>jaret9564@gmail.com</t>
   </si>
   <si>
@@ -1178,6 +1199,9 @@
     <t>antiojsmith14@gmail.com</t>
   </si>
   <si>
+    <t>guevaraelizabeth488@gmail.com</t>
+  </si>
+  <si>
     <t>baez94588@gmail.com</t>
   </si>
   <si>
@@ -1202,6 +1226,9 @@
     <t>2721206374</t>
   </si>
   <si>
+    <t>2722018429</t>
+  </si>
+  <si>
     <t>2721287650</t>
   </si>
   <si>
@@ -1226,6 +1253,9 @@
     <t>2721082864</t>
   </si>
   <si>
+    <t>2721525672</t>
+  </si>
+  <si>
     <t>2711012004</t>
   </si>
   <si>
@@ -1253,6 +1283,9 @@
     <t>2721016875</t>
   </si>
   <si>
+    <t>2721895648</t>
+  </si>
+  <si>
     <t>2721948449</t>
   </si>
   <si>
@@ -1583,7 +1616,7 @@
     <t>misaelxotlanihua@gmail.com</t>
   </si>
   <si>
-    <t>hersonlive@outlook.es</t>
+    <t>hersonxolio@gmail.com</t>
   </si>
   <si>
     <t>joeldeneyhernandez@gmail.com</t>
@@ -1796,6 +1829,9 @@
     <t>ANTONIO PACHECO APARICIO</t>
   </si>
   <si>
+    <t>BARSIMEO ISMAEL PAZ CESAR</t>
+  </si>
+  <si>
     <t>EDGAR ENRIQUE PATIÑO GARCÍA</t>
   </si>
   <si>
@@ -1826,6 +1862,9 @@
     <t>ISMAEL XOTLANIHUA REYES</t>
   </si>
   <si>
+    <t>ALVARO ELIAS XOLIO LINARES</t>
+  </si>
+  <si>
     <t>ELODIA XOTLANIHUA GUTIÉRREZ</t>
   </si>
   <si>
@@ -1928,7 +1967,7 @@
     <t>2721899640</t>
   </si>
   <si>
-    <t>52614500000000000</t>
+    <t>5.26145e+16</t>
   </si>
   <si>
     <t>2291159611</t>
@@ -2267,7 +2306,7 @@
     <t>2721319968</t>
   </si>
   <si>
-    <t>2722287536</t>
+    <t>2721279750</t>
   </si>
   <si>
     <t>2722466200</t>
@@ -2399,6 +2438,9 @@
     <t>JOSE ADRIAN ALCÁNTARA CHICO</t>
   </si>
   <si>
+    <t>MIRIAM GONZÁLEZ AGUILAR</t>
+  </si>
+  <si>
     <t>OSVALDO CASTILLO GARCIA</t>
   </si>
   <si>
@@ -2447,6 +2489,9 @@
     <t>HILDA ZAPATA ARROYO</t>
   </si>
   <si>
+    <t>AIDA MÉNDOZA GONZÁLEZ</t>
+  </si>
+  <si>
     <t>VÍCTOR MIXCOHUA CASTILLO</t>
   </si>
   <si>
@@ -2486,6 +2531,12 @@
     <t>CESAR SANTILLANA LOPEZ</t>
   </si>
   <si>
+    <t>JOAQUÍN TREJO MEJÍA</t>
+  </si>
+  <si>
+    <t>miriamgonzi84@gmail.com</t>
+  </si>
+  <si>
     <t>evangelio0.1bgc@gmail.com</t>
   </si>
   <si>
@@ -2561,6 +2612,9 @@
     <t>2721634883</t>
   </si>
   <si>
+    <t>2721322441</t>
+  </si>
+  <si>
     <t>2721437274</t>
   </si>
   <si>
@@ -3141,6 +3195,9 @@
   </si>
   <si>
     <t>ORESTE JOSÉ AGUSTÍN GARCÍA RIOS</t>
+  </si>
+  <si>
+    <t>TOMAS ROJAS DEL CARMEN</t>
   </si>
   <si>
     <t>AXEL VELAZQUEZ SILVA</t>
@@ -3766,7 +3823,7 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
         <v>158</v>
@@ -3795,7 +3852,7 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
         <v>159</v>
@@ -3881,9 +3938,6 @@
       <c r="H6" t="s">
         <v>125</v>
       </c>
-      <c r="I6" t="s">
-        <v>145</v>
-      </c>
       <c r="J6" t="s">
         <v>161</v>
       </c>
@@ -4383,6 +4437,9 @@
       <c r="F23" t="s">
         <v>113</v>
       </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -4407,7 +4464,7 @@
         <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
         <v>157</v>
@@ -4487,19 +4544,19 @@
         <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4519,19 +4576,19 @@
         <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4551,16 +4608,16 @@
         <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4580,19 +4637,19 @@
         <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I5" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="J5" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4612,13 +4669,13 @@
         <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4638,16 +4695,16 @@
         <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4667,16 +4724,16 @@
         <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I8" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J8" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4696,19 +4753,19 @@
         <v>261</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I9" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4728,7 +4785,16 @@
         <v>262</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="H10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" t="s">
+        <v>378</v>
+      </c>
+      <c r="J10" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4748,19 +4814,19 @@
         <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I11" t="s">
         <v>263</v>
       </c>
       <c r="J11" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4780,16 +4846,16 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I12" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J12" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4809,19 +4875,19 @@
         <v>265</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I13" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J13" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4841,19 +4907,19 @@
         <v>266</v>
       </c>
       <c r="F14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I14" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="J14" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4873,19 +4939,19 @@
         <v>267</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I15" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J15" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4905,19 +4971,19 @@
         <v>268</v>
       </c>
       <c r="F16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I16" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J16" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4937,19 +5003,19 @@
         <v>269</v>
       </c>
       <c r="F17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I17" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="J17" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4969,16 +5035,16 @@
         <v>270</v>
       </c>
       <c r="F18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J18" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4998,7 +5064,16 @@
         <v>271</v>
       </c>
       <c r="F19" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="H19" t="s">
+        <v>355</v>
+      </c>
+      <c r="I19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5018,16 +5093,16 @@
         <v>272</v>
       </c>
       <c r="F20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I20" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="J20" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5047,19 +5122,19 @@
         <v>273</v>
       </c>
       <c r="F21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H21" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I21" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="J21" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5079,19 +5154,19 @@
         <v>274</v>
       </c>
       <c r="F22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G22" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H22" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I22" t="s">
         <v>274</v>
       </c>
       <c r="J22" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5111,16 +5186,16 @@
         <v>275</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J23" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5140,19 +5215,19 @@
         <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H24" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I24" t="s">
         <v>276</v>
       </c>
       <c r="J24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5172,16 +5247,16 @@
         <v>277</v>
       </c>
       <c r="F25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I25" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="J25" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5201,19 +5276,19 @@
         <v>278</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I26" t="s">
         <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5233,19 +5308,19 @@
         <v>279</v>
       </c>
       <c r="F27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H27" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I27" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="J27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5265,19 +5340,19 @@
         <v>280</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H28" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I28" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="J28" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5297,19 +5372,19 @@
         <v>281</v>
       </c>
       <c r="F29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H29" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I29" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J29" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5329,19 +5404,19 @@
         <v>282</v>
       </c>
       <c r="F30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H30" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I30" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="J30" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5357,6 +5432,21 @@
       <c r="D31" t="s">
         <v>249</v>
       </c>
+      <c r="E31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" t="s">
+        <v>367</v>
+      </c>
+      <c r="I31" t="s">
+        <v>393</v>
+      </c>
+      <c r="J31" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
@@ -5372,19 +5462,19 @@
         <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F32" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H32" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="I32" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="J32" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5401,22 +5491,22 @@
         <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G33" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H33" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="I33" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="J33" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5433,16 +5523,19 @@
         <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F34" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H34" t="s">
-        <v>365</v>
+        <v>370</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5459,19 +5552,19 @@
         <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H35" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I35" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J35" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -5533,31 +5626,31 @@
         <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="I2" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="J2" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5565,31 +5658,31 @@
         <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="F3" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="G3" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="H3" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="I3" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="J3" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5597,31 +5690,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="E4" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="F4" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="G4" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="I4" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="J4" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5629,28 +5722,28 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="E5" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F5" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="H5" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="I5" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="J5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5658,28 +5751,25 @@
         <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="E6" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="G6" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
-      </c>
-      <c r="J6" t="s">
-        <v>527</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5687,31 +5777,31 @@
         <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="E7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="G7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="H7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="I7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="J7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5725,25 +5815,25 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="G8" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H8" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="I8" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="J8" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5757,22 +5847,22 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="E9" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="F9" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="H9" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="I9" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="J9" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5783,19 +5873,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="D10" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="F10" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H10" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5809,22 +5899,22 @@
         <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F11" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="H11" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="I11" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="J11" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5835,25 +5925,25 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F12" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="G12" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="H12" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J12" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5864,28 +5954,28 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D13" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="F13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="G13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="I13" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="J13" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5896,28 +5986,28 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D14" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E14" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="F14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="G14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="H14" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="I14" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="J14" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5928,28 +6018,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G15" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="H15" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="I15" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="J15" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5963,25 +6053,25 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="E16" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="G16" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H16" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="I16" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="J16" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5995,22 +6085,22 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E17" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="H17" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="I17" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="J17" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6024,22 +6114,22 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="E18" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F18" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="G18" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H18" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="J18" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6047,28 +6137,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="E19" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="F19" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H19" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="I19" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="J19" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6082,25 +6172,25 @@
         <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="E20" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="F20" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G20" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H20" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="I20" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="J20" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6108,28 +6198,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B21" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="E21" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="F21" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H21" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="I21" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="J21" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6137,31 +6227,31 @@
         <v>19330051920337</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="E22" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="F22" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="G22" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="I22" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="J22" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6169,31 +6259,31 @@
         <v>19330051920338</v>
       </c>
       <c r="B23" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="E23" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F23" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="G23" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H23" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="I23" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="J23" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6201,25 +6291,25 @@
         <v>19330051920339</v>
       </c>
       <c r="B24" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C24" t="s">
         <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="E24" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F24" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="H24" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="J24" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6227,31 +6317,31 @@
         <v>19330051920340</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C25" t="s">
         <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="E25" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="F25" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="G25" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="H25" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="I25" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="J25" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6265,25 +6355,25 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="E26" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F26" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="G26" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="H26" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="I26" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="J26" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6294,16 +6384,19 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D27" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E27" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F27" t="s">
-        <v>548</v>
+        <v>559</v>
+      </c>
+      <c r="H27" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6311,31 +6404,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="E28" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="F28" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G28" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="H28" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="I28" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="J28" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6346,25 +6439,25 @@
         <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="D29" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="E29" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="F29" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H29" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="I29" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="J29" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6372,31 +6465,31 @@
         <v>19330051920347</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D30" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="E30" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F30" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="G30" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H30" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="I30" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="J30" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6410,22 +6503,22 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E31" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F31" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="G31" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H31" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="J31" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6439,25 +6532,25 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="E32" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F32" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G32" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H32" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="I32" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="J32" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6468,28 +6561,28 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="E33" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F33" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="G33" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H33" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="I33" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="J33" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6500,28 +6593,28 @@
         <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="E34" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F34" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="G34" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="H34" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="I34" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="J34" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6529,31 +6622,31 @@
         <v>19330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C35" t="s">
         <v>219</v>
       </c>
       <c r="D35" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E35" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F35" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="G35" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="H35" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="I35" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="J35" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6561,25 +6654,25 @@
         <v>19330051920352</v>
       </c>
       <c r="B36" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C36" t="s">
         <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="E36" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F36" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H36" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="J36" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6587,31 +6680,31 @@
         <v>19330051920354</v>
       </c>
       <c r="B37" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C37" t="s">
         <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="E37" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F37" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="G37" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="H37" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="I37" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="J37" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6619,19 +6712,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B38" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C38" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="E38" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F38" t="s">
-        <v>559</v>
+        <v>570</v>
+      </c>
+      <c r="H38" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6639,31 +6735,31 @@
         <v>19330051920355</v>
       </c>
       <c r="B39" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C39" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D39" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E39" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="F39" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="G39" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="H39" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="I39" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="J39" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -6728,25 +6824,25 @@
         <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="D2" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="E2" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="F2" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="G2" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="H2" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="J2" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6754,19 +6850,28 @@
         <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="E3" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="F3" t="s">
-        <v>749</v>
+        <v>762</v>
+      </c>
+      <c r="H3" t="s">
+        <v>806</v>
+      </c>
+      <c r="I3" t="s">
+        <v>838</v>
+      </c>
+      <c r="J3" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6774,31 +6879,31 @@
         <v>19330051920248</v>
       </c>
       <c r="B4" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="E4" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="F4" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="G4" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="H4" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="I4" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="J4" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6806,31 +6911,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D5" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="E5" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="F5" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="G5" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="H5" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="I5" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="J5" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6838,31 +6943,31 @@
         <v>19330051920250</v>
       </c>
       <c r="B6" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="D6" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="E6" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="F6" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="G6" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="H6" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="I6" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="J6" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6873,28 +6978,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="E7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="F7" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="G7" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="H7" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="I7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="J7" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6905,25 +7010,25 @@
         <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="D8" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="E8" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="F8" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="G8" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="H8" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="I8" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6931,28 +7036,28 @@
         <v>19330051920253</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="E9" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="F9" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="H9" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="I9" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="J9" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6966,25 +7071,25 @@
         <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="F10" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G10" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="H10" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="I10" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="J10" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6995,28 +7100,28 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="D11" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="E11" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="F11" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="G11" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="H11" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="I11" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="J11" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7030,25 +7135,25 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="E12" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="F12" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G12" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="H12" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="I12" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="J12" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7062,25 +7167,25 @@
         <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="E13" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="F13" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G13" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="H13" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="I13" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="J13" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7091,28 +7196,28 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="D14" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="E14" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="F14" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G14" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="H14" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="I14" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="J14" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7120,28 +7225,28 @@
         <v>19330051920259</v>
       </c>
       <c r="B15" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C15" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="D15" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="E15" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="F15" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="G15" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="H15" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="I15" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7152,28 +7257,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="D16" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="E16" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="F16" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="G16" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="H16" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="I16" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="J16" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7181,31 +7286,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="C17" t="s">
         <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="E17" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="F17" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="G17" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="H17" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="I17" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="J17" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7219,25 +7324,25 @@
         <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E18" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="F18" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="G18" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="H18" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="I18" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="J18" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7245,31 +7350,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="C19" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="D19" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="E19" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="F19" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="G19" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="H19" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="I19" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="J19" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7277,7 +7382,7 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -7286,10 +7391,13 @@
         <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="F20" t="s">
-        <v>766</v>
+        <v>779</v>
+      </c>
+      <c r="H20" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7297,31 +7405,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="C21" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E21" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="F21" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="G21" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="H21" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="I21" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="J21" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7329,22 +7437,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="C22" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="D22" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="E22" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="F22" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="H22" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7355,28 +7463,28 @@
         <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="D23" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="E23" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="F23" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="G23" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="H23" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="I23" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="J23" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7384,28 +7492,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="C24" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D24" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="E24" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="F24" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="H24" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="I24" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="J24" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7416,28 +7524,28 @@
         <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="D25" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="E25" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="F25" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="G25" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="H25" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="I25" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="J25" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7451,25 +7559,25 @@
         <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="E26" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="F26" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="G26" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="H26" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="I26" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="J26" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7477,31 +7585,31 @@
         <v>19330051920405</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="D27" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="E27" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="F27" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="G27" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="H27" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="I27" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="J27" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7509,31 +7617,31 @@
         <v>19330051920406</v>
       </c>
       <c r="B28" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="C28" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D28" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="E28" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="F28" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="G28" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="H28" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="I28" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
       <c r="J28" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7541,7 +7649,7 @@
         <v>19330051920407</v>
       </c>
       <c r="B29" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -7550,19 +7658,19 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="F29" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="H29" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="I29" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
       <c r="J29" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7570,31 +7678,31 @@
         <v>19330051920408</v>
       </c>
       <c r="B30" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="E30" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="F30" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="G30" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="H30" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="I30" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="J30" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7608,22 +7716,22 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="E31" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="G31" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="H31" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="I31" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="J31" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7634,28 +7742,28 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="D32" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="E32" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="F32" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="G32" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="H32" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="I32" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="J32" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7663,25 +7771,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B33" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="E33" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="F33" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="H33" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="I33" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7692,16 +7800,19 @@
         <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="D34" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="E34" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="F34" t="s">
-        <v>779</v>
+        <v>792</v>
+      </c>
+      <c r="H34" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -7763,31 +7874,31 @@
         <v>19330051920359</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="E2" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="F2" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="G2" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="H2" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="I2" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="J2" t="s">
-        <v>1077</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7795,28 +7906,28 @@
         <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="D3" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="E3" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="F3" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="H3" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="I3" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="J3" t="s">
-        <v>1078</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7824,25 +7935,25 @@
         <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="C4" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="D4" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="E4" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="F4" t="s">
-        <v>967</v>
+        <v>985</v>
       </c>
       <c r="H4" t="s">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="I4" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7850,31 +7961,31 @@
         <v>19330051920456</v>
       </c>
       <c r="B5" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="C5" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="D5" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="E5" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="F5" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="G5" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="H5" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
       <c r="I5" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="J5" t="s">
-        <v>1079</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7882,31 +7993,31 @@
         <v>19330051920362</v>
       </c>
       <c r="B6" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="C6" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E6" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="F6" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="G6" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="H6" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
       <c r="I6" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="J6" t="s">
-        <v>1080</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7914,31 +8025,31 @@
         <v>19330051920426</v>
       </c>
       <c r="B7" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="D7" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="E7" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="F7" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="G7" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="H7" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="I7" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="J7" t="s">
-        <v>1081</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7946,31 +8057,31 @@
         <v>19330051920366</v>
       </c>
       <c r="B8" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="C8" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="D8" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="E8" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="F8" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="G8" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="H8" t="s">
-        <v>1018</v>
+        <v>1036</v>
       </c>
       <c r="I8" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="J8" t="s">
-        <v>1082</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7981,28 +8092,28 @@
         <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="D9" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="E9" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="F9" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="G9" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="H9" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="I9" t="s">
-        <v>1054</v>
+        <v>1073</v>
       </c>
       <c r="J9" t="s">
-        <v>1083</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8016,25 +8127,25 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="E10" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="F10" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="G10" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="H10" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="I10" t="s">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="J10" t="s">
-        <v>1084</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8048,25 +8159,25 @@
         <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="E11" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
       <c r="F11" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="G11" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="H11" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="I11" t="s">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="J11" t="s">
-        <v>1085</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8074,31 +8185,31 @@
         <v>19330051920435</v>
       </c>
       <c r="B12" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="C12" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="D12" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="E12" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="F12" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="G12" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="H12" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="I12" t="s">
-        <v>1057</v>
+        <v>1076</v>
       </c>
       <c r="J12" t="s">
-        <v>1086</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8106,31 +8217,31 @@
         <v>19330051920371</v>
       </c>
       <c r="B13" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="C13" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="D13" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
       <c r="E13" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="F13" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="G13" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="H13" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="I13" t="s">
-        <v>1058</v>
+        <v>1077</v>
       </c>
       <c r="J13" t="s">
-        <v>1087</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8141,28 +8252,28 @@
         <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="D14" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="E14" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="F14" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="G14" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="H14" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="I14" t="s">
-        <v>1059</v>
+        <v>1078</v>
       </c>
       <c r="J14" t="s">
-        <v>1088</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8176,25 +8287,25 @@
         <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="E15" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="F15" t="s">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="G15" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="H15" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="I15" t="s">
-        <v>1060</v>
+        <v>1079</v>
       </c>
       <c r="J15" t="s">
-        <v>1089</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8205,28 +8316,28 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="D16" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="E16" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="F16" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="G16" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="H16" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="I16" t="s">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="J16" t="s">
-        <v>1090</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8237,28 +8348,28 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="E17" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="F17" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="G17" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="H17" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="I17" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="J17" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8269,25 +8380,25 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="D18" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="E18" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="F18" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="H18" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="I18" t="s">
-        <v>1062</v>
+        <v>1081</v>
       </c>
       <c r="J18" t="s">
-        <v>1091</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8304,19 +8415,19 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="F19" t="s">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="I19" t="s">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="J19" t="s">
-        <v>1092</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8330,25 +8441,25 @@
         <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="E20" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="F20" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="G20" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="H20" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="I20" t="s">
-        <v>1064</v>
+        <v>1083</v>
       </c>
       <c r="J20" t="s">
-        <v>1093</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8362,19 +8473,19 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="E21" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="F21" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="H21" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="J21" t="s">
-        <v>1094</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8388,25 +8499,25 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="E22" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
       <c r="F22" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="G22" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="H22" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
       <c r="I22" t="s">
-        <v>1065</v>
+        <v>1084</v>
       </c>
       <c r="J22" t="s">
-        <v>1095</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8414,25 +8525,25 @@
         <v>19330051920382</v>
       </c>
       <c r="B23" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="C23" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="D23" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="E23" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="F23" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="H23" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="J23" t="s">
-        <v>1096</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8440,31 +8551,31 @@
         <v>19330051920383</v>
       </c>
       <c r="B24" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="C24" t="s">
         <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="E24" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="F24" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="G24" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="H24" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="I24" t="s">
-        <v>1066</v>
+        <v>1085</v>
       </c>
       <c r="J24" t="s">
-        <v>1097</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8475,25 +8586,25 @@
         <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="D25" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="E25" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="F25" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="H25" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="I25" t="s">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="J25" t="s">
-        <v>1098</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8507,25 +8618,25 @@
         <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="E26" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="F26" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="G26" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="H26" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="I26" t="s">
-        <v>1068</v>
+        <v>1087</v>
       </c>
       <c r="J26" t="s">
-        <v>1099</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8533,31 +8644,31 @@
         <v>19330051920389</v>
       </c>
       <c r="B27" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C27" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="D27" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="E27" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="F27" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="G27" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="H27" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="I27" t="s">
-        <v>1069</v>
+        <v>1088</v>
       </c>
       <c r="J27" t="s">
-        <v>1100</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8565,28 +8676,28 @@
         <v>18330051920108</v>
       </c>
       <c r="B28" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="C28" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="D28" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="E28" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="F28" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="H28" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="I28" t="s">
-        <v>1070</v>
+        <v>1089</v>
       </c>
       <c r="J28" t="s">
-        <v>1101</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8594,22 +8705,22 @@
         <v>19330051920436</v>
       </c>
       <c r="B29" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C29" t="s">
         <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="E29" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="F29" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="H29" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8617,31 +8728,31 @@
         <v>19330051920391</v>
       </c>
       <c r="B30" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="C30" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="D30" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="E30" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="F30" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="G30" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="H30" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="I30" t="s">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="J30" t="s">
-        <v>1102</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8649,19 +8760,22 @@
         <v>19330051920393</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="E31" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="F31" t="s">
-        <v>994</v>
+        <v>1012</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -8672,25 +8786,25 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="D32" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="E32" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="F32" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="H32" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="I32" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="J32" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -8698,31 +8812,31 @@
         <v>19330051920434</v>
       </c>
       <c r="B33" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C33" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="D33" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="E33" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
       <c r="F33" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="G33" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="H33" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
       <c r="I33" t="s">
-        <v>1072</v>
+        <v>1091</v>
       </c>
       <c r="J33" t="s">
-        <v>1103</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -8733,28 +8847,28 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="D34" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="E34" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="F34" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="G34" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="H34" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="I34" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="J34" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -8765,28 +8879,28 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D35" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="E35" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="F35" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="G35" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="H35" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
       <c r="I35" t="s">
-        <v>1074</v>
+        <v>1093</v>
       </c>
       <c r="J35" t="s">
-        <v>1104</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -8794,28 +8908,28 @@
         <v>18330051920188</v>
       </c>
       <c r="B36" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="C36" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="D36" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="E36" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
       <c r="F36" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="H36" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="I36" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="J36" t="s">
-        <v>1105</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8829,25 +8943,25 @@
         <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="E37" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="F37" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="G37" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="H37" t="s">
-        <v>1046</v>
+        <v>1065</v>
       </c>
       <c r="I37" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="J37" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -8855,31 +8969,31 @@
         <v>19330051920399</v>
       </c>
       <c r="B38" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="C38" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="D38" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="E38" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
       <c r="F38" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="G38" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="H38" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="I38" t="s">
-        <v>1076</v>
+        <v>1095</v>
       </c>
       <c r="J38" t="s">
-        <v>1106</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
